--- a/P0148_ExploringPascalsTriangle/sampleSubTriangle.xlsx
+++ b/P0148_ExploringPascalsTriangle/sampleSubTriangle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FZROOT\dev\gitRepositories\ProjectEuler\P0148_ExploringPascalsTriangle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1D4BA393-7D53-45FE-89E6-9BF4A080BB5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{1F1DD561-2A7F-4FF2-9A86-C76767048E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32295" yWindow="1380" windowWidth="23370" windowHeight="13230" activeTab="1" xr2:uid="{E0A6CF86-67D7-48A6-8B8B-F18B16A29875}"/>
+    <workbookView xWindow="32295" yWindow="1380" windowWidth="23370" windowHeight="13230" xr2:uid="{E0A6CF86-67D7-48A6-8B8B-F18B16A29875}"/>
   </bookViews>
   <sheets>
     <sheet name="sub100" sheetId="2" r:id="rId1"/>
@@ -423,9 +423,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C78042-A748-4F69-8118-7A39142E4DDD}">
   <dimension ref="A1:CX102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16704,16 +16706,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907B3799-7DEA-4D21-B59F-AA0552926674}">
-  <dimension ref="A1:GT202"/>
+  <dimension ref="A1:GV202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="GE174" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="GU175" sqref="GU175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17321,15 +17325,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
+      <c r="GU2">
+        <f t="shared" ref="GU2:GU65" si="0">SUM(B2:GT2)</f>
+        <v>0</v>
+      </c>
+      <c r="GV2">
+        <f>A2-GU2+1</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -17339,8 +17351,16 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="GU3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV3">
+        <f t="shared" ref="GV3:GV66" si="1">A3-GU3+1</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -17353,8 +17373,16 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="GU4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -17370,8 +17398,16 @@
       <c r="E5">
         <v>0</v>
       </c>
+      <c r="GU5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -17390,8 +17426,16 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="GU6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="7" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -17413,8 +17457,16 @@
       <c r="G7">
         <v>0</v>
       </c>
+      <c r="GU7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -17439,8 +17491,16 @@
       <c r="H8">
         <v>0</v>
       </c>
+      <c r="GU8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -17468,8 +17528,16 @@
       <c r="I9">
         <v>0</v>
       </c>
+      <c r="GU9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="GV9">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -17500,8 +17568,16 @@
       <c r="J10">
         <v>0</v>
       </c>
+      <c r="GU10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="GV10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -17535,8 +17611,16 @@
       <c r="K11">
         <v>0</v>
       </c>
+      <c r="GU11">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="GV11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -17573,8 +17657,16 @@
       <c r="L12">
         <v>0</v>
       </c>
+      <c r="GU12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="GV12">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="13" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -17614,8 +17706,16 @@
       <c r="M13">
         <v>0</v>
       </c>
+      <c r="GU13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="GV13">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="14" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -17658,8 +17758,16 @@
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="GU14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="GV14">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -17705,8 +17813,16 @@
       <c r="O15">
         <v>0</v>
       </c>
+      <c r="GU15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="16" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -17755,8 +17871,16 @@
       <c r="P16">
         <v>0</v>
       </c>
+      <c r="GU16">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="GV16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -17808,8 +17932,16 @@
       <c r="Q17">
         <v>0</v>
       </c>
+      <c r="GU17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="GV17">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17864,8 +17996,16 @@
       <c r="R18">
         <v>0</v>
       </c>
+      <c r="GU18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="GV18">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -17923,8 +18063,16 @@
       <c r="S19">
         <v>0</v>
       </c>
+      <c r="GU19">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="GV19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -17985,8 +18133,16 @@
       <c r="T20">
         <v>0</v>
       </c>
+      <c r="GU20">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="GV20">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -18050,8 +18206,16 @@
       <c r="U21">
         <v>0</v>
       </c>
+      <c r="GU21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="GV21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -18118,8 +18282,16 @@
       <c r="V22">
         <v>0</v>
       </c>
+      <c r="GU22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV22">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -18189,8 +18361,16 @@
       <c r="W23">
         <v>0</v>
       </c>
+      <c r="GU23">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="GV23">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -18263,8 +18443,16 @@
       <c r="X24">
         <v>0</v>
       </c>
+      <c r="GU24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="GV24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -18340,8 +18528,16 @@
       <c r="Y25">
         <v>0</v>
       </c>
+      <c r="GU25">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="GV25">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -18420,8 +18616,16 @@
       <c r="Z26">
         <v>0</v>
       </c>
+      <c r="GU26">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="GV26">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -18503,8 +18707,16 @@
       <c r="AA27">
         <v>0</v>
       </c>
+      <c r="GU27">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="GV27">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -18589,8 +18801,16 @@
       <c r="AB28">
         <v>0</v>
       </c>
+      <c r="GU28">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="GV28">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -18678,8 +18898,16 @@
       <c r="AC29">
         <v>0</v>
       </c>
+      <c r="GU29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV29">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -18770,8 +18998,16 @@
       <c r="AD30">
         <v>0</v>
       </c>
+      <c r="GU30">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="GV30">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -18865,8 +19101,16 @@
       <c r="AE31">
         <v>0</v>
       </c>
+      <c r="GU31">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="GV31">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -18963,8 +19207,16 @@
       <c r="AF32">
         <v>0</v>
       </c>
+      <c r="GU32">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="GV32">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="33" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -19064,8 +19316,16 @@
       <c r="AG33">
         <v>0</v>
       </c>
+      <c r="GU33">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="GV33">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="34" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -19168,8 +19428,16 @@
       <c r="AH34">
         <v>0</v>
       </c>
+      <c r="GU34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="GV34">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
     </row>
-    <row r="35" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -19275,8 +19543,16 @@
       <c r="AI35">
         <v>0</v>
       </c>
+      <c r="GU35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="GV35">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="36" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -19385,8 +19661,16 @@
       <c r="AJ36">
         <v>0</v>
       </c>
+      <c r="GU36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV36">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="37" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -19498,8 +19782,16 @@
       <c r="AK37">
         <v>0</v>
       </c>
+      <c r="GU37">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="GV37">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="38" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -19614,8 +19906,16 @@
       <c r="AL38">
         <v>0</v>
       </c>
+      <c r="GU38">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="GV38">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="39" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -19733,8 +20033,16 @@
       <c r="AM39">
         <v>0</v>
       </c>
+      <c r="GU39">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="GV39">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -19855,8 +20163,16 @@
       <c r="AN40">
         <v>0</v>
       </c>
+      <c r="GU40">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="GV40">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -19980,8 +20296,16 @@
       <c r="AO41">
         <v>0</v>
       </c>
+      <c r="GU41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="GV41">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -20108,8 +20432,16 @@
       <c r="AP42">
         <v>0</v>
       </c>
+      <c r="GU42">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="GV42">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -20239,8 +20571,16 @@
       <c r="AQ43">
         <v>0</v>
       </c>
+      <c r="GU43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV43">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -20373,8 +20713,16 @@
       <c r="AR44">
         <v>0</v>
       </c>
+      <c r="GU44">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="GV44">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
     </row>
-    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -20510,8 +20858,16 @@
       <c r="AS45">
         <v>0</v>
       </c>
+      <c r="GU45">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="GV45">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -20650,8 +21006,16 @@
       <c r="AT46">
         <v>0</v>
       </c>
+      <c r="GU46">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="GV46">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -20793,8 +21157,16 @@
       <c r="AU47">
         <v>0</v>
       </c>
+      <c r="GU47">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="GV47">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -20939,8 +21311,16 @@
       <c r="AV48">
         <v>0</v>
       </c>
+      <c r="GU48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="GV48">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="49" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -21088,8 +21468,16 @@
       <c r="AW49">
         <v>0</v>
       </c>
+      <c r="GU49">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="GV49">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="50" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -21240,8 +21628,16 @@
       <c r="AX50">
         <v>0</v>
       </c>
+      <c r="GU50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="GV50">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
     </row>
-    <row r="51" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -21395,8 +21791,16 @@
       <c r="AY51">
         <v>0</v>
       </c>
+      <c r="GU51">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="GV51">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="52" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -21553,8 +21957,16 @@
       <c r="AZ52">
         <v>0</v>
       </c>
+      <c r="GU52">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="GV52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="53" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -21714,8 +22126,16 @@
       <c r="BA53">
         <v>0</v>
       </c>
+      <c r="GU53">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="GV53">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="54" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -21878,8 +22298,16 @@
       <c r="BB54">
         <v>0</v>
       </c>
+      <c r="GU54">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="GV54">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="55" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -22045,8 +22473,16 @@
       <c r="BC55">
         <v>0</v>
       </c>
+      <c r="GU55">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="GV55">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="56" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -22215,8 +22651,16 @@
       <c r="BD56">
         <v>0</v>
       </c>
+      <c r="GU56">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="GV56">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="57" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -22388,8 +22832,16 @@
       <c r="BE57">
         <v>0</v>
       </c>
+      <c r="GU57">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="GV57">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="58" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -22564,8 +23016,16 @@
       <c r="BF58">
         <v>0</v>
       </c>
+      <c r="GU58">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="GV58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -22743,8 +23203,16 @@
       <c r="BG59">
         <v>0</v>
       </c>
+      <c r="GU59">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="GV59">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="60" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -22925,8 +23393,16 @@
       <c r="BH60">
         <v>0</v>
       </c>
+      <c r="GU60">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="GV60">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="61" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -23110,8 +23586,16 @@
       <c r="BI61">
         <v>0</v>
       </c>
+      <c r="GU61">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="GV61">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="62" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -23298,8 +23782,16 @@
       <c r="BJ62">
         <v>0</v>
       </c>
+      <c r="GU62">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="GV62">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="63" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -23489,8 +23981,16 @@
       <c r="BK63">
         <v>0</v>
       </c>
+      <c r="GU63">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="GV63">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="64" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -23683,8 +24183,16 @@
       <c r="BL64">
         <v>0</v>
       </c>
+      <c r="GU64">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="GV64">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="65" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -23880,8 +24388,16 @@
       <c r="BM65">
         <v>0</v>
       </c>
+      <c r="GU65">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="GV65">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="66" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -24080,8 +24596,16 @@
       <c r="BN66">
         <v>0</v>
       </c>
+      <c r="GU66">
+        <f t="shared" ref="GU66:GU92" si="2">SUM(B66:GT66)</f>
+        <v>53</v>
+      </c>
+      <c r="GV66">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="67" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -24283,8 +24807,16 @@
       <c r="BO67">
         <v>0</v>
       </c>
+      <c r="GU67">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="GV67">
+        <f t="shared" ref="GV67:GV130" si="3">A67-GU67+1</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="68" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -24489,8 +25021,16 @@
       <c r="BP68">
         <v>0</v>
       </c>
+      <c r="GU68">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="GV68">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="69" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -24698,8 +25238,16 @@
       <c r="BQ69">
         <v>0</v>
       </c>
+      <c r="GU69">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="GV69">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="70" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -24910,8 +25458,16 @@
       <c r="BR70">
         <v>0</v>
       </c>
+      <c r="GU70">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="GV70">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="71" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -25125,8 +25681,16 @@
       <c r="BS71">
         <v>0</v>
       </c>
+      <c r="GU71">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="GV71">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="72" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -25343,8 +25907,16 @@
       <c r="BT72">
         <v>0</v>
       </c>
+      <c r="GU72">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="GV72">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="73" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -25564,8 +26136,16 @@
       <c r="BU73">
         <v>0</v>
       </c>
+      <c r="GU73">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="GV73">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="74" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -25788,8 +26368,16 @@
       <c r="BV74">
         <v>0</v>
       </c>
+      <c r="GU74">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="GV74">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="75" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -26015,8 +26603,16 @@
       <c r="BW75">
         <v>0</v>
       </c>
+      <c r="GU75">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="GV75">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="76" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -26245,8 +26841,16 @@
       <c r="BX76">
         <v>0</v>
       </c>
+      <c r="GU76">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="GV76">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="77" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -26478,8 +27082,16 @@
       <c r="BY77">
         <v>0</v>
       </c>
+      <c r="GU77">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="GV77">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="78" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -26714,8 +27326,16 @@
       <c r="BZ78">
         <v>0</v>
       </c>
+      <c r="GU78">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="GV78">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="79" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -26953,8 +27573,16 @@
       <c r="CA79">
         <v>0</v>
       </c>
+      <c r="GU79">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="GV79">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="80" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -27195,8 +27823,16 @@
       <c r="CB80">
         <v>0</v>
       </c>
+      <c r="GU80">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="GV80">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="81" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -27440,8 +28076,16 @@
       <c r="CC81">
         <v>0</v>
       </c>
+      <c r="GU81">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="GV81">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="82" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -27688,8 +28332,16 @@
       <c r="CD82">
         <v>0</v>
       </c>
+      <c r="GU82">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="GV82">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="83" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -27939,8 +28591,16 @@
       <c r="CE83">
         <v>0</v>
       </c>
+      <c r="GU83">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="GV83">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
     </row>
-    <row r="84" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -28193,8 +28853,16 @@
       <c r="CF84">
         <v>0</v>
       </c>
+      <c r="GU84">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="GV84">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="85" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -28450,8 +29118,16 @@
       <c r="CG85">
         <v>0</v>
       </c>
+      <c r="GU85">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="GV85">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="86" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -28710,8 +29386,16 @@
       <c r="CH86">
         <v>0</v>
       </c>
+      <c r="GU86">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="GV86">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="87" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -28973,8 +29657,16 @@
       <c r="CI87">
         <v>0</v>
       </c>
+      <c r="GU87">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="GV87">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="88" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -29239,8 +29931,16 @@
       <c r="CJ88">
         <v>0</v>
       </c>
+      <c r="GU88">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="GV88">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="89" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -29508,8 +30208,16 @@
       <c r="CK89">
         <v>0</v>
       </c>
+      <c r="GU89">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="GV89">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="90" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -29780,8 +30488,16 @@
       <c r="CL90">
         <v>0</v>
       </c>
+      <c r="GU90">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="GV90">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="91" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -30055,8 +30771,16 @@
       <c r="CM91">
         <v>0</v>
       </c>
+      <c r="GU91">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="GV91">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="92" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -30333,8 +31057,16 @@
       <c r="CN92">
         <v>0</v>
       </c>
+      <c r="GU92">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="GV92">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="93" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -30614,8 +31346,16 @@
       <c r="CO93">
         <v>0</v>
       </c>
+      <c r="GU93">
+        <f t="shared" ref="GU93:GU116" si="4">SUM(B93:GT93)</f>
+        <v>78</v>
+      </c>
+      <c r="GV93">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
     </row>
-    <row r="94" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -30898,8 +31638,16 @@
       <c r="CP94">
         <v>0</v>
       </c>
+      <c r="GU94">
+        <f t="shared" si="4"/>
+        <v>65</v>
+      </c>
+      <c r="GV94">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="95" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -31185,8 +31933,16 @@
       <c r="CQ95">
         <v>0</v>
       </c>
+      <c r="GU95">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="GV95">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="96" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -31475,8 +32231,16 @@
       <c r="CR96">
         <v>0</v>
       </c>
+      <c r="GU96">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="GV96">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="97" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -31768,8 +32532,16 @@
       <c r="CS97">
         <v>0</v>
       </c>
+      <c r="GU97">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="GV97">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="98" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -32064,8 +32836,16 @@
       <c r="CT98">
         <v>0</v>
       </c>
+      <c r="GU98">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="GV98">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="99" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -32363,8 +33143,16 @@
       <c r="CU99">
         <v>0</v>
       </c>
+      <c r="GU99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="GV99">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
     </row>
-    <row r="100" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -32665,8 +33453,16 @@
       <c r="CV100">
         <v>0</v>
       </c>
+      <c r="GU100">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="GV100">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="101" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -32970,8 +33766,16 @@
       <c r="CW101">
         <v>0</v>
       </c>
+      <c r="GU101">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="GV101">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="102" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -33278,8 +34082,16 @@
       <c r="CX102">
         <v>0</v>
       </c>
+      <c r="GU102">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="GV102">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="103" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -33589,8 +34401,16 @@
       <c r="CY103">
         <v>0</v>
       </c>
+      <c r="GU103">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="GV103">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="104" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -33903,8 +34723,16 @@
       <c r="CZ104">
         <v>0</v>
       </c>
+      <c r="GU104">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="GV104">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="105" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -34220,8 +35048,16 @@
       <c r="DA105">
         <v>0</v>
       </c>
+      <c r="GU105">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="GV105">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="106" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -34540,8 +35376,16 @@
       <c r="DB106">
         <v>0</v>
       </c>
+      <c r="GU106">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="GV106">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="107" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -34863,8 +35707,16 @@
       <c r="DC107">
         <v>0</v>
       </c>
+      <c r="GU107">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="GV107">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="108" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -35189,8 +36041,16 @@
       <c r="DD108">
         <v>0</v>
       </c>
+      <c r="GU108">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="GV108">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="109" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -35518,8 +36378,16 @@
       <c r="DE109">
         <v>0</v>
       </c>
+      <c r="GU109">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="GV109">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="110" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -35850,8 +36718,16 @@
       <c r="DF110">
         <v>0</v>
       </c>
+      <c r="GU110">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="GV110">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="111" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -36185,8 +37061,16 @@
       <c r="DG111">
         <v>0</v>
       </c>
+      <c r="GU111">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="GV111">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="112" spans="1:112" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -36226,9 +37110,6 @@
       <c r="M112">
         <v>0</v>
       </c>
-      <c r="N112">
-        <v>0</v>
-      </c>
       <c r="O112">
         <v>1</v>
       </c>
@@ -36523,8 +37404,16 @@
       <c r="DH112">
         <v>0</v>
       </c>
+      <c r="GU112">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="GV112">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="113" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -36864,8 +37753,16 @@
       <c r="DI113">
         <v>0</v>
       </c>
+      <c r="GU113">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="GV113">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="114" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -37208,8 +38105,16 @@
       <c r="DJ114">
         <v>0</v>
       </c>
+      <c r="GU114">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="GV114">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
     </row>
-    <row r="115" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -37555,8 +38460,16 @@
       <c r="DK115">
         <v>0</v>
       </c>
+      <c r="GU115">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="GV115">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="116" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -37905,8 +38818,16 @@
       <c r="DL116">
         <v>0</v>
       </c>
+      <c r="GU116">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="GV116">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
     </row>
-    <row r="117" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -38258,8 +39179,16 @@
       <c r="DM117">
         <v>0</v>
       </c>
+      <c r="GU117">
+        <f t="shared" ref="GU117:GU141" si="5">SUM(B117:GT117)</f>
+        <v>80</v>
+      </c>
+      <c r="GV117">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="118" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -38614,8 +39543,16 @@
       <c r="DN118">
         <v>0</v>
       </c>
+      <c r="GU118">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="GV118">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="119" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -38973,8 +39910,16 @@
       <c r="DO119">
         <v>0</v>
       </c>
+      <c r="GU119">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="GV119">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="120" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -39335,8 +40280,16 @@
       <c r="DP120">
         <v>0</v>
       </c>
+      <c r="GU120">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="GV120">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="121" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -39700,8 +40653,16 @@
       <c r="DQ121">
         <v>0</v>
       </c>
+      <c r="GU121">
+        <f t="shared" si="5"/>
+        <v>108</v>
+      </c>
+      <c r="GV121">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="122" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -40068,8 +41029,16 @@
       <c r="DR122">
         <v>0</v>
       </c>
+      <c r="GU122">
+        <f t="shared" si="5"/>
+        <v>97</v>
+      </c>
+      <c r="GV122">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="123" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -40439,8 +41408,16 @@
       <c r="DS123">
         <v>0</v>
       </c>
+      <c r="GU123">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+      <c r="GV123">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="124" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -40813,8 +41790,16 @@
       <c r="DT124">
         <v>0</v>
       </c>
+      <c r="GU124">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="GV124">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="125" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -41190,8 +42175,16 @@
       <c r="DU125">
         <v>0</v>
       </c>
+      <c r="GU125">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="GV125">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="126" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -41570,8 +42563,16 @@
       <c r="DV126">
         <v>0</v>
       </c>
+      <c r="GU126">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="GV126">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="127" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -41953,8 +42954,16 @@
       <c r="DW127">
         <v>0</v>
       </c>
+      <c r="GU127">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="GV127">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="128" spans="1:128" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -42339,8 +43348,16 @@
       <c r="DX128">
         <v>0</v>
       </c>
+      <c r="GU128">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="GV128">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="129" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -42728,8 +43745,16 @@
       <c r="DY129">
         <v>0</v>
       </c>
+      <c r="GU129">
+        <f t="shared" si="5"/>
+        <v>98</v>
+      </c>
+      <c r="GV129">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
-    <row r="130" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -43120,8 +44145,16 @@
       <c r="DZ130">
         <v>0</v>
       </c>
+      <c r="GU130">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+      <c r="GV130">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
     </row>
-    <row r="131" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -43515,8 +44548,16 @@
       <c r="EA131">
         <v>0</v>
       </c>
+      <c r="GU131">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="GV131">
+        <f t="shared" ref="GV131:GV194" si="6">A131-GU131+1</f>
+        <v>60</v>
+      </c>
     </row>
-    <row r="132" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -43913,8 +44954,16 @@
       <c r="EB132">
         <v>0</v>
       </c>
+      <c r="GU132">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="GV132">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
     </row>
-    <row r="133" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -44314,8 +45363,16 @@
       <c r="EC133">
         <v>0</v>
       </c>
+      <c r="GU133">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+      <c r="GV133">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
     </row>
-    <row r="134" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -44718,8 +45775,16 @@
       <c r="ED134">
         <v>0</v>
       </c>
+      <c r="GU134">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="GV134">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
     </row>
-    <row r="135" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -45125,8 +46190,16 @@
       <c r="EE135">
         <v>0</v>
       </c>
+      <c r="GU135">
+        <f t="shared" si="5"/>
+        <v>116</v>
+      </c>
+      <c r="GV135">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="136" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -45535,8 +46608,16 @@
       <c r="EF136">
         <v>0</v>
       </c>
+      <c r="GU136">
+        <f t="shared" si="5"/>
+        <v>99</v>
+      </c>
+      <c r="GV136">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="137" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -45948,8 +47029,16 @@
       <c r="EG137">
         <v>0</v>
       </c>
+      <c r="GU137">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="GV137">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
     </row>
-    <row r="138" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -46364,8 +47453,16 @@
       <c r="EH138">
         <v>0</v>
       </c>
+      <c r="GU138">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="GV138">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="139" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -46783,8 +47880,16 @@
       <c r="EI139">
         <v>0</v>
       </c>
+      <c r="GU139">
+        <f t="shared" si="5"/>
+        <v>48</v>
+      </c>
+      <c r="GV139">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
     </row>
-    <row r="140" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -47205,8 +48310,16 @@
       <c r="EJ140">
         <v>0</v>
       </c>
+      <c r="GU140">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+      <c r="GV140">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
     </row>
-    <row r="141" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -47630,8 +48743,16 @@
       <c r="EK141">
         <v>0</v>
       </c>
+      <c r="GU141">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="GV141">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
     </row>
-    <row r="142" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -48058,8 +49179,16 @@
       <c r="EL142">
         <v>0</v>
       </c>
+      <c r="GU142">
+        <f t="shared" ref="GU142:GU161" si="7">SUM(B142:GT142)</f>
+        <v>120</v>
+      </c>
+      <c r="GV142">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
     </row>
-    <row r="143" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -48489,8 +49618,16 @@
       <c r="EM143">
         <v>0</v>
       </c>
+      <c r="GU143">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="GV143">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
     </row>
-    <row r="144" spans="1:144" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -48923,8 +50060,16 @@
       <c r="EN144">
         <v>0</v>
       </c>
+      <c r="GU144">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="GV144">
+        <f t="shared" si="6"/>
+        <v>63</v>
+      </c>
     </row>
-    <row r="145" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -49360,8 +50505,16 @@
       <c r="EO145">
         <v>0</v>
       </c>
+      <c r="GU145">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="GV145">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="146" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -49800,8 +50953,16 @@
       <c r="EP146">
         <v>0</v>
       </c>
+      <c r="GU146">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="GV146">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
     </row>
-    <row r="147" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -50243,8 +51404,16 @@
       <c r="EQ147">
         <v>0</v>
       </c>
+      <c r="GU147">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="GV147">
+        <f t="shared" si="6"/>
+        <v>126</v>
+      </c>
     </row>
-    <row r="148" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -50689,8 +51858,16 @@
       <c r="ER148">
         <v>0</v>
       </c>
+      <c r="GU148">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="GV148">
+        <f t="shared" si="6"/>
+        <v>147</v>
+      </c>
     </row>
-    <row r="149" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -51138,8 +52315,16 @@
       <c r="ES149">
         <v>0</v>
       </c>
+      <c r="GU149">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="GV149">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="150" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -51590,8 +52775,16 @@
       <c r="ET150">
         <v>0</v>
       </c>
+      <c r="GU150">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="GV150">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="151" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -52045,8 +53238,16 @@
       <c r="EU151">
         <v>0</v>
       </c>
+      <c r="GU151">
+        <f t="shared" si="7"/>
+        <v>138</v>
+      </c>
+      <c r="GV151">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="152" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -52503,8 +53704,16 @@
       <c r="EV152">
         <v>0</v>
       </c>
+      <c r="GU152">
+        <f t="shared" si="7"/>
+        <v>135</v>
+      </c>
+      <c r="GV152">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="153" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -52964,8 +54173,16 @@
       <c r="EW153">
         <v>0</v>
       </c>
+      <c r="GU153">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="GV153">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="154" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -53428,8 +54645,16 @@
       <c r="EX154">
         <v>0</v>
       </c>
+      <c r="GU154">
+        <f t="shared" si="7"/>
+        <v>129</v>
+      </c>
+      <c r="GV154">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="155" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -53895,8 +55120,16 @@
       <c r="EY155">
         <v>0</v>
       </c>
+      <c r="GU155">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="GV155">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="156" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -54365,8 +55598,16 @@
       <c r="EZ156">
         <v>0</v>
       </c>
+      <c r="GU156">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="GV156">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="157" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -54838,8 +56079,16 @@
       <c r="FA157">
         <v>0</v>
       </c>
+      <c r="GU157">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="GV157">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="158" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -55314,8 +56563,16 @@
       <c r="FB158">
         <v>0</v>
       </c>
+      <c r="GU158">
+        <f t="shared" si="7"/>
+        <v>133</v>
+      </c>
+      <c r="GV158">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="159" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -55793,8 +57050,16 @@
       <c r="FC159">
         <v>0</v>
       </c>
+      <c r="GU159">
+        <f t="shared" si="7"/>
+        <v>126</v>
+      </c>
+      <c r="GV159">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="160" spans="1:160" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -56275,8 +57540,16 @@
       <c r="FD160">
         <v>0</v>
       </c>
+      <c r="GU160">
+        <f t="shared" si="7"/>
+        <v>119</v>
+      </c>
+      <c r="GV160">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="161" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -56760,8 +58033,16 @@
       <c r="FE161">
         <v>0</v>
       </c>
+      <c r="GU161">
+        <f t="shared" si="7"/>
+        <v>112</v>
+      </c>
+      <c r="GV161">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="162" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -57248,8 +58529,16 @@
       <c r="FF162">
         <v>0</v>
       </c>
+      <c r="GU162">
+        <f t="shared" ref="GU162:GU168" si="8">SUM(B162:GT162)</f>
+        <v>105</v>
+      </c>
+      <c r="GV162">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="163" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -57739,8 +59028,16 @@
       <c r="FG163">
         <v>0</v>
       </c>
+      <c r="GU163">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="GV163">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
     </row>
-    <row r="164" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -58233,8 +59530,16 @@
       <c r="FH164">
         <v>0</v>
       </c>
+      <c r="GU164">
+        <f t="shared" si="8"/>
+        <v>139</v>
+      </c>
+      <c r="GV164">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="165" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -58730,8 +60035,16 @@
       <c r="FI165">
         <v>0</v>
       </c>
+      <c r="GU165">
+        <f t="shared" si="8"/>
+        <v>128</v>
+      </c>
+      <c r="GV165">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
     </row>
-    <row r="166" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -59230,8 +60543,16 @@
       <c r="FJ166">
         <v>0</v>
       </c>
+      <c r="GU166">
+        <f t="shared" si="8"/>
+        <v>117</v>
+      </c>
+      <c r="GV166">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="167" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -59733,8 +61054,16 @@
       <c r="FK167">
         <v>0</v>
       </c>
+      <c r="GU167">
+        <f t="shared" si="8"/>
+        <v>106</v>
+      </c>
+      <c r="GV167">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="168" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -60239,8 +61568,16 @@
       <c r="FL168">
         <v>0</v>
       </c>
+      <c r="GU168">
+        <f t="shared" si="8"/>
+        <v>95</v>
+      </c>
+      <c r="GV168">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="169" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -60748,8 +62085,16 @@
       <c r="FM169">
         <v>0</v>
       </c>
+      <c r="GU169">
+        <f t="shared" ref="GU169:GU178" si="9">SUM(B169:GT169)</f>
+        <v>84</v>
+      </c>
+      <c r="GV169">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="170" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -61260,8 +62605,16 @@
       <c r="FN170">
         <v>0</v>
       </c>
+      <c r="GU170">
+        <f t="shared" si="9"/>
+        <v>153</v>
+      </c>
+      <c r="GV170">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
     </row>
-    <row r="171" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -61775,8 +63128,16 @@
       <c r="FO171">
         <v>0</v>
       </c>
+      <c r="GU171">
+        <f t="shared" si="9"/>
+        <v>138</v>
+      </c>
+      <c r="GV171">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
     </row>
-    <row r="172" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -62293,8 +63654,16 @@
       <c r="FP172">
         <v>0</v>
       </c>
+      <c r="GU172">
+        <f t="shared" si="9"/>
+        <v>123</v>
+      </c>
+      <c r="GV172">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="173" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -62814,8 +64183,16 @@
       <c r="FQ173">
         <v>0</v>
       </c>
+      <c r="GU173">
+        <f t="shared" si="9"/>
+        <v>108</v>
+      </c>
+      <c r="GV173">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
     </row>
-    <row r="174" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -63338,8 +64715,16 @@
       <c r="FR174">
         <v>0</v>
       </c>
+      <c r="GU174">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="GV174">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="175" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -63865,8 +65250,16 @@
       <c r="FS175">
         <v>0</v>
       </c>
+      <c r="GU175">
+        <f t="shared" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="GV175">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="176" spans="1:176" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -64395,8 +65788,16 @@
       <c r="FT176">
         <v>0</v>
       </c>
+      <c r="GU176">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+      <c r="GV176">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
     </row>
-    <row r="177" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -64928,8 +66329,16 @@
       <c r="FU177">
         <v>0</v>
       </c>
+      <c r="GU177">
+        <f t="shared" si="9"/>
+        <v>156</v>
+      </c>
+      <c r="GV177">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="178" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -65464,8 +66873,16 @@
       <c r="FV178">
         <v>0</v>
       </c>
+      <c r="GU178">
+        <f t="shared" si="9"/>
+        <v>137</v>
+      </c>
+      <c r="GV178">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="179" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -66003,8 +67420,16 @@
       <c r="FW179">
         <v>0</v>
       </c>
+      <c r="GU179">
+        <f t="shared" ref="GU179:GU200" si="10">SUM(B179:GT179)</f>
+        <v>118</v>
+      </c>
+      <c r="GV179">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="180" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -66545,8 +67970,16 @@
       <c r="FX180">
         <v>0</v>
       </c>
+      <c r="GU180">
+        <f t="shared" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="GV180">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
     </row>
-    <row r="181" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -67090,8 +68523,16 @@
       <c r="FY181">
         <v>0</v>
       </c>
+      <c r="GU181">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="GV181">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
     </row>
-    <row r="182" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -67638,8 +69079,16 @@
       <c r="FZ182">
         <v>0</v>
       </c>
+      <c r="GU182">
+        <f t="shared" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="GV182">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
     </row>
-    <row r="183" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -68189,8 +69638,16 @@
       <c r="GA183">
         <v>0</v>
       </c>
+      <c r="GU183">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="GV183">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
     </row>
-    <row r="184" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -68743,8 +70200,16 @@
       <c r="GB184">
         <v>0</v>
       </c>
+      <c r="GU184">
+        <f t="shared" si="10"/>
+        <v>159</v>
+      </c>
+      <c r="GV184">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
     </row>
-    <row r="185" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -69300,8 +70765,16 @@
       <c r="GC185">
         <v>0</v>
       </c>
+      <c r="GU185">
+        <f t="shared" si="10"/>
+        <v>136</v>
+      </c>
+      <c r="GV185">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
     </row>
-    <row r="186" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -69860,8 +71333,16 @@
       <c r="GD186">
         <v>0</v>
       </c>
+      <c r="GU186">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="GV186">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
     </row>
-    <row r="187" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -70423,8 +71904,16 @@
       <c r="GE187">
         <v>0</v>
       </c>
+      <c r="GU187">
+        <f t="shared" si="10"/>
+        <v>90</v>
+      </c>
+      <c r="GV187">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="188" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -70989,8 +72478,16 @@
       <c r="GF188">
         <v>0</v>
       </c>
+      <c r="GU188">
+        <f t="shared" si="10"/>
+        <v>67</v>
+      </c>
+      <c r="GV188">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
     </row>
-    <row r="189" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -71558,8 +73055,16 @@
       <c r="GG189">
         <v>0</v>
       </c>
+      <c r="GU189">
+        <f t="shared" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="GV189">
+        <f t="shared" si="6"/>
+        <v>144</v>
+      </c>
     </row>
-    <row r="190" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -72130,8 +73635,16 @@
       <c r="GH190">
         <v>0</v>
       </c>
+      <c r="GU190">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="GV190">
+        <f t="shared" si="6"/>
+        <v>168</v>
+      </c>
     </row>
-    <row r="191" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -72705,8 +74218,16 @@
       <c r="GI191">
         <v>0</v>
       </c>
+      <c r="GU191">
+        <f t="shared" si="10"/>
+        <v>162</v>
+      </c>
+      <c r="GV191">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
     </row>
-    <row r="192" spans="1:192" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -73283,8 +74804,16 @@
       <c r="GJ192">
         <v>0</v>
       </c>
+      <c r="GU192">
+        <f t="shared" si="10"/>
+        <v>135</v>
+      </c>
+      <c r="GV192">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
     </row>
-    <row r="193" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -73864,8 +75393,16 @@
       <c r="GK193">
         <v>0</v>
       </c>
+      <c r="GU193">
+        <f>SUM(B193:GT193)</f>
+        <v>108</v>
+      </c>
+      <c r="GV193">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
     </row>
-    <row r="194" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -74448,8 +75985,16 @@
       <c r="GL194">
         <v>0</v>
       </c>
+      <c r="GU194">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="GV194">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
     </row>
-    <row r="195" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -75035,8 +76580,16 @@
       <c r="GM195">
         <v>0</v>
       </c>
+      <c r="GU195">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="GV195">
+        <f t="shared" ref="GV195:GV202" si="11">A195-GU195+1</f>
+        <v>140</v>
+      </c>
     </row>
-    <row r="196" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -75625,8 +77178,16 @@
       <c r="GN196">
         <v>0</v>
       </c>
+      <c r="GU196">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="GV196">
+        <f t="shared" si="11"/>
+        <v>168</v>
+      </c>
     </row>
-    <row r="197" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -76218,8 +77779,16 @@
       <c r="GO197">
         <v>0</v>
       </c>
+      <c r="GU197">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="GV197">
+        <f t="shared" si="11"/>
+        <v>196</v>
+      </c>
     </row>
-    <row r="198" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -76814,8 +78383,16 @@
       <c r="GP198">
         <v>0</v>
       </c>
+      <c r="GU198">
+        <f t="shared" si="10"/>
+        <v>192</v>
+      </c>
+      <c r="GV198">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="199" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -77413,8 +78990,16 @@
       <c r="GQ199">
         <v>0</v>
       </c>
+      <c r="GU199">
+        <f t="shared" si="10"/>
+        <v>188</v>
+      </c>
+      <c r="GV199">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="200" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -78015,8 +79600,16 @@
       <c r="GR200">
         <v>0</v>
       </c>
+      <c r="GU200">
+        <f t="shared" si="10"/>
+        <v>184</v>
+      </c>
+      <c r="GV200">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="201" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -78620,8 +80213,16 @@
       <c r="GS201">
         <v>0</v>
       </c>
+      <c r="GU201">
+        <f>SUM(B201:GT201)</f>
+        <v>180</v>
+      </c>
+      <c r="GV201">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
     </row>
-    <row r="202" spans="1:202" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:204" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -79227,6 +80828,14 @@
       </c>
       <c r="GT202">
         <v>0</v>
+      </c>
+      <c r="GU202">
+        <f>SUM(B202:GT202)</f>
+        <v>176</v>
+      </c>
+      <c r="GV202">
+        <f t="shared" si="11"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
